--- a/Excel/Excel college budget.xlsx
+++ b/Excel/Excel college budget.xlsx
@@ -899,11 +899,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="336087480"/>
-        <c:axId val="336087088"/>
+        <c:axId val="258589664"/>
+        <c:axId val="261036616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="336087480"/>
+        <c:axId val="258589664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,7 +913,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336087088"/>
+        <c:crossAx val="261036616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -921,7 +921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="336087088"/>
+        <c:axId val="261036616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -931,7 +931,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336087480"/>
+        <c:crossAx val="258589664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1101,8 +1101,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="336088656"/>
-        <c:axId val="336090616"/>
+        <c:axId val="469117120"/>
+        <c:axId val="469117512"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1261,11 +1261,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="336088656"/>
-        <c:axId val="336090616"/>
+        <c:axId val="469117120"/>
+        <c:axId val="469117512"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="336088656"/>
+        <c:axId val="469117120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,7 +1299,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336090616"/>
+        <c:crossAx val="469117512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1307,7 +1307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="336090616"/>
+        <c:axId val="469117512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,7 +1317,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336088656"/>
+        <c:crossAx val="469117120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1952,13 +1952,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>482419</xdr:colOff>
+      <xdr:colOff>510994</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>482419</xdr:colOff>
+      <xdr:colOff>510994</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>47387</xdr:rowOff>
     </xdr:to>
@@ -1969,7 +1969,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4778194" y="1780922"/>
+          <a:off x="4806769" y="1780922"/>
           <a:ext cx="0" cy="2524140"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2003,15 +2003,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:colOff>219074</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>514730</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57530</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>89186</xdr:rowOff>
+      <xdr:rowOff>108236</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2678,7 +2678,9 @@
   </sheetPr>
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
